--- a/biology/Botanique/Erysimum_capitatum/Erysimum_capitatum.xlsx
+++ b/biology/Botanique/Erysimum_capitatum/Erysimum_capitatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erysimum capitatum est une espèce de plante à fleurs du genre Erysimum. La plante est semblable à celles permettant de faire de la moutarde.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est composée d’une tige partant d’une rosette et dont le sommet est couvert de fleurs jaunes (parfois orangées). Chaque fleur possède quatre pétales. La plante peut être utilisée comme plante de jardin.
 </t>
@@ -542,7 +556,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Erysimum capitatum existe en plusieurs sous-espèces dont certaines sont considérées comme menacées de disparition dans certaines zones. Par exemple, Erysimum capitatum var angustatum, est menacée de disparition en Californie.
 E. c. var. angustatum -
@@ -580,7 +596,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On connait peu de chose par rapport aux relations entre la plantes et les insectes pollinisateurs. Le chercheur Andrew Moldenke étudia une population d’Erysimum capitatum var. perenne entre 1968-1970 dans une région subalpine (2900-3500 m). Il observa ainsi 13 espèces d’insectes sur les fleurs mais 80 % de ces insectes étaient des fourmis et principalement de type Formica lasioides et Formica fusca.
 </t>
